--- a/output/ABSOLUTE_28947266000165.xlsx
+++ b/output/ABSOLUTE_28947266000165.xlsx
@@ -669,10 +669,10 @@
         <v>44165</v>
       </c>
       <c r="B26">
-        <v>0.13980751</v>
+        <v>0.14100165</v>
       </c>
       <c r="C26">
-        <v>0.009224023669627268</v>
+        <v>0.01028135551298814</v>
       </c>
     </row>
   </sheetData>

--- a/output/ABSOLUTE_28947266000165.xlsx
+++ b/output/ABSOLUTE_28947266000165.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ABSOLUTE VERTEX ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,293 +383,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43434</v>
       </c>
       <c r="B2">
-        <v>0.01000682000000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43465</v>
       </c>
       <c r="B3">
-        <v>0.01677675000000001</v>
-      </c>
-      <c r="C3">
         <v>0.006702855729231461</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43496</v>
       </c>
       <c r="B4">
-        <v>0.06220158999999992</v>
-      </c>
-      <c r="C4">
         <v>0.04467533310532512</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43524</v>
       </c>
       <c r="B5">
-        <v>0.04669762</v>
-      </c>
-      <c r="C5">
         <v>-0.01459607116573791</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43555</v>
       </c>
       <c r="B6">
-        <v>0.03167279000000001</v>
-      </c>
-      <c r="C6">
         <v>-0.01435450861157017</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43585</v>
       </c>
       <c r="B7">
-        <v>0.04501654999999993</v>
-      </c>
-      <c r="C7">
         <v>0.01293410093717795</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43616</v>
       </c>
       <c r="B8">
-        <v>0.06846039999999998</v>
-      </c>
-      <c r="C8">
         <v>0.02243395092642309</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43646</v>
       </c>
       <c r="B9">
-        <v>0.07669152000000001</v>
-      </c>
-      <c r="C9">
         <v>0.007703720231465816</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43677</v>
       </c>
       <c r="B10">
-        <v>0.06860775999999991</v>
-      </c>
-      <c r="C10">
         <v>-0.007507962912162713</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43708</v>
       </c>
       <c r="B11">
-        <v>0.07232755000000002</v>
-      </c>
-      <c r="C11">
         <v>0.003480968545465313</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43738</v>
       </c>
       <c r="B12">
-        <v>0.07962548000000003</v>
-      </c>
-      <c r="C12">
         <v>0.006805691040951078</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43769</v>
       </c>
       <c r="B13">
-        <v>0.1008332599999999</v>
-      </c>
-      <c r="C13">
         <v>0.01964364531300244</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43799</v>
       </c>
       <c r="B14">
-        <v>0.1044212200000001</v>
-      </c>
-      <c r="C14">
         <v>0.003259312859061225</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43830</v>
       </c>
       <c r="B15">
-        <v>0.12009403</v>
-      </c>
-      <c r="C15">
         <v>0.01419097144837544</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43861</v>
       </c>
       <c r="B16">
-        <v>0.1310877100000001</v>
-      </c>
-      <c r="C16">
         <v>0.009814961695671309</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43890</v>
       </c>
       <c r="B17">
-        <v>0.1160989400000001</v>
-      </c>
-      <c r="C17">
         <v>-0.01325164252735089</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43921</v>
       </c>
       <c r="B18">
-        <v>0.09965037999999993</v>
-      </c>
-      <c r="C18">
         <v>-0.0147375464759425</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43951</v>
       </c>
       <c r="B19">
-        <v>0.11863001</v>
-      </c>
-      <c r="C19">
         <v>0.01725969484955758</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43982</v>
       </c>
       <c r="B20">
-        <v>0.11999932</v>
-      </c>
-      <c r="C20">
         <v>0.001224095534501313</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>44012</v>
       </c>
       <c r="B21">
-        <v>0.1230647499999999</v>
-      </c>
-      <c r="C21">
         <v>0.002736992733174182</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>44043</v>
       </c>
       <c r="B22">
-        <v>0.14480293</v>
-      </c>
-      <c r="C22">
         <v>0.01935612350044824</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>44074</v>
       </c>
       <c r="B23">
-        <v>0.1444081500000001</v>
-      </c>
-      <c r="C23">
         <v>-0.0003448453787586736</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>44104</v>
       </c>
       <c r="B24">
-        <v>0.1263540299999999</v>
-      </c>
-      <c r="C24">
         <v>-0.01577594497208024</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44135</v>
       </c>
       <c r="B25">
-        <v>0.12938999</v>
-      </c>
-      <c r="C25">
         <v>0.002695386991246496</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44165</v>
       </c>
       <c r="B26">
-        <v>0.14100165</v>
-      </c>
-      <c r="C26">
-        <v>0.01028135551298814</v>
+        <v>0.006635661787652403</v>
       </c>
     </row>
   </sheetData>
